--- a/xlsx/社会工作_intext.xlsx
+++ b/xlsx/社会工作_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%B7%A5%E4%BD%9C%E8%80%85</t>
   </si>
   <si>
-    <t>社會工作者</t>
+    <t>社会工作者</t>
   </si>
   <si>
     <t>政策_政策_社会政策_社会工作</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>社區</t>
+    <t>社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%8A%9F%E8%83%BD</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>社會問題</t>
+    <t>社会问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%B7%A5%E4%BD%9C</t>
   </si>
   <si>
-    <t>社區工作</t>
+    <t>社区工作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5</t>
   </si>
   <si>
-    <t>兒童</t>
+    <t>儿童</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B0%91%E5%B9%B4</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3</t>
   </si>
   <si>
-    <t>婦女</t>
+    <t>妇女</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E5%BF%83%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>身心障礙</t>
+    <t>身心障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>勞工</t>
+    <t>劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>學校</t>
+    <t>学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>醫院</t>
+    <t>医院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E7%8D%84</t>
   </si>
   <si>
-    <t>監獄</t>
+    <t>监狱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%B8%AB</t>
   </si>
   <si>
-    <t>教師</t>
+    <t>教师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫師</t>
+    <t>医师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E5%AE%98</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9D%A6%E9%84%B0%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>睦鄰運動</t>
+    <t>睦邻运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E8%8E%89%C2%B7%E9%87%8C%E5%A5%87%E8%92%99</t>
   </si>
   <si>
-    <t>瑪莉·里奇蒙</t>
+    <t>玛莉·里奇蒙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%A0%BC%E8%92%99%E5%BE%B7%C2%B7%E4%BD%9B%E6%B4%9B%E4%BC%8A%E5%BE%B7</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神分析學</t>
+    <t>精神分析学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E6%9C%83</t>
   </si>
   <si>
-    <t>耶穌會</t>
+    <t>耶稣会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E4%BC%9A%E5%A3%AB</t>
@@ -227,25 +227,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E6%A1%88%E5%B7%A5%E4%BD%9C</t>
   </si>
   <si>
-    <t>個案工作</t>
+    <t>个案工作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E9%AB%94%E5%B7%A5%E4%BD%9C</t>
   </si>
   <si>
-    <t>團體工作</t>
+    <t>团体工作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%AD%86%E9%81%8E%E6%92%A5%E6%AC%BE</t>
   </si>
   <si>
-    <t>一筆過撥款</t>
+    <t>一笔过拨款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%A4%BE%E6%9C%83%E5%B7%A5%E4%BD%9C%E8%80%85%E7%B8%BD%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>香港社會工作者總工會</t>
+    <t>香港社会工作者总工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>潛意識</t>
+    <t>潜意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>心理結構</t>
+    <t>心理结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E6%88%91</t>
@@ -293,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%9B%E9%96%80%E6%9C%9F</t>
   </si>
   <si>
-    <t>肛門期</t>
+    <t>肛门期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E4%BC%8F%E6%9C%9F_(%E6%80%A7%E5%BF%83%E7%90%86%E7%99%BC%E5%B1%95)</t>
   </si>
   <si>
-    <t>潛伏期 (性心理發展)</t>
+    <t>潜伏期 (性心理发展)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E9%98%B2%E8%A1%9B%E6%A9%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>心理防衛機制</t>
+    <t>心理防卫机制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%83%85</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E9%99%84%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>依附理論</t>
+    <t>依附理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%B7%A5%E4%BD%9C</t>
